--- a/Main_dataset.xlsx
+++ b/Main_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b88e9b99c0e7d8c4/Documents/GitHub/nba_expanasion_draft_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60224F25-ECA9-43F8-94F7-6A3059A889AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{60224F25-ECA9-43F8-94F7-6A3059A889AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F628D45E-7E22-4ACF-8C64-C69B3BF122B6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{46F4496A-40F5-4363-930A-926ADCD398AC}"/>
+    <workbookView xWindow="13000" yWindow="2910" windowWidth="16920" windowHeight="10540" xr2:uid="{46F4496A-40F5-4363-930A-926ADCD398AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -57,7 +57,25 @@
     <t>Is Unrestricted Free Agent YE?</t>
   </si>
   <si>
-    <t>Is Injury Prone?</t>
+    <t>Potential?</t>
+  </si>
+  <si>
+    <t>Solomon Hill</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>PF/SF</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Bruno Fernando</t>
   </si>
 </sst>
 </file>
@@ -409,18 +427,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D9721B-AE3F-45F6-A06D-A5BFBEB69EC7}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -449,6 +468,37 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Main_dataset.xlsx
+++ b/Main_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b88e9b99c0e7d8c4/Documents/GitHub/nba_expanasion_draft_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{60224F25-ECA9-43F8-94F7-6A3059A889AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F628D45E-7E22-4ACF-8C64-C69B3BF122B6}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{60224F25-ECA9-43F8-94F7-6A3059A889AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67A3D54D-19FE-46DF-A4CA-2FEEE42E0F53}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="2910" windowWidth="16920" windowHeight="10540" xr2:uid="{46F4496A-40F5-4363-930A-926ADCD398AC}"/>
+    <workbookView xWindow="220" yWindow="1690" windowWidth="16920" windowHeight="10540" xr2:uid="{46F4496A-40F5-4363-930A-926ADCD398AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,48 +34,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Salary Next Year</t>
-  </si>
-  <si>
-    <t>Years Left on Contract</t>
-  </si>
-  <si>
-    <t>Is Unrestricted Free Agent YE?</t>
-  </si>
-  <si>
-    <t>Potential?</t>
-  </si>
-  <si>
-    <t>Solomon Hill</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>PF/SF</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Bruno Fernando</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>1st Round Draft Pick</t>
+  </si>
+  <si>
+    <t>Pick Number</t>
+  </si>
+  <si>
+    <t>Average VORP</t>
+  </si>
+  <si>
+    <t>Average W/S</t>
+  </si>
+  <si>
+    <t>Koby Altman</t>
+  </si>
+  <si>
+    <t>Colin Sexton</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Dylan Windler</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
   </si>
 </sst>
 </file>
@@ -427,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D9721B-AE3F-45F6-A06D-A5BFBEB69EC7}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,7 +430,7 @@
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,45 +446,49 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
+      <c r="C5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
